--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
@@ -2775,7 +2775,11 @@
           <t>API Crude Oil Stock ChangeJAN/03</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>-1.442M</t>
@@ -4802,15 +4806,11 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentDEC/28</t>
+          <t>Foreign Bond InvestmentJAN/04</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>¥-919.2B</t>
-        </is>
-      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
@@ -4830,11 +4830,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/04</t>
+          <t>Foreign Bond InvestmentDEC/28</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>¥-919.2B</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
@@ -9906,7 +9910,11 @@
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>-4.022M</t>
+        </is>
+      </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H493"/>
+  <dimension ref="A1:H468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6525,10 +6525,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
@@ -6559,10 +6557,8 @@
           <t>4.9%</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H191" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -6597,10 +6593,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -6635,10 +6629,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -6669,10 +6661,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -6703,10 +6693,8 @@
           <t>-2.5%</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -6741,10 +6729,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -6779,10 +6765,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -6813,10 +6797,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -6847,10 +6829,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -6881,10 +6861,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -6915,10 +6893,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -6953,10 +6929,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H202" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -6991,10 +6965,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -7029,10 +7001,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -7067,10 +7037,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7105,10 +7073,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -7139,10 +7105,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -7177,10 +7141,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7211,10 +7173,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -7249,10 +7209,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7287,10 +7245,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7321,10 +7277,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7355,10 +7309,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7393,10 +7345,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -7427,10 +7377,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7461,10 +7409,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7495,10 +7441,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7529,10 +7473,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7555,10 +7497,8 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -7585,10 +7525,8 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -7615,10 +7553,8 @@
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -7641,10 +7577,8 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -7671,10 +7605,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -7701,10 +7633,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -7731,10 +7661,8 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -7761,10 +7689,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -7791,10 +7717,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -7843,10 +7767,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -7881,10 +7803,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -7919,10 +7839,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -7953,10 +7871,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -7983,10 +7899,8 @@
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -8013,10 +7927,8 @@
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -8061,10 +7973,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8095,10 +8005,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8125,10 +8033,8 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8155,10 +8061,8 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8185,10 +8089,8 @@
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8211,10 +8113,8 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8245,10 +8145,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -8279,10 +8177,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8305,10 +8201,8 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8331,10 +8225,8 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8357,10 +8249,8 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8391,10 +8281,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8421,10 +8309,8 @@
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8451,10 +8337,8 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8481,10 +8365,8 @@
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -8511,10 +8393,8 @@
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -8541,10 +8421,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -8567,10 +8445,8 @@
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -8593,10 +8469,8 @@
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8619,10 +8493,8 @@
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8649,10 +8521,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -8675,10 +8545,8 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -8697,10 +8565,8 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -8741,10 +8607,8 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H260" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="261">
@@ -8771,10 +8635,8 @@
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -8801,10 +8663,8 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -8835,10 +8695,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -8869,10 +8727,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -8899,10 +8755,8 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -8929,10 +8783,8 @@
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -8959,10 +8811,8 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -8993,10 +8843,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9027,10 +8875,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9057,10 +8903,8 @@
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -9087,10 +8931,8 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9121,10 +8963,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9155,10 +8995,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9027,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9219,10 +9055,8 @@
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H275" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="276">
@@ -9249,10 +9083,8 @@
       </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9279,10 +9111,8 @@
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9305,10 +9135,8 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9331,10 +9159,8 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -9361,10 +9187,8 @@
       </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -9391,10 +9215,8 @@
       </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -9425,10 +9247,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -9459,10 +9279,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -9489,10 +9307,8 @@
       </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -9523,10 +9339,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -9557,10 +9371,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -9587,10 +9399,8 @@
       </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -9617,10 +9427,8 @@
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -9651,10 +9459,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -9681,10 +9487,8 @@
       </c>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -9711,10 +9515,8 @@
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -9737,10 +9539,8 @@
       </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -9785,10 +9585,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -9819,10 +9617,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -9853,10 +9649,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -9887,10 +9681,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -9917,10 +9709,8 @@
       </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -9951,10 +9741,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -9981,10 +9769,8 @@
       </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10011,10 +9797,8 @@
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10041,10 +9825,8 @@
       </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10075,10 +9857,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10109,10 +9889,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -10143,10 +9921,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10177,10 +9953,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H306" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -10211,10 +9985,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10245,10 +10017,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10279,10 +10049,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -10313,10 +10081,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -10347,10 +10113,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -10381,10 +10145,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -10415,10 +10177,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -10449,10 +10209,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -10483,10 +10241,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -10513,10 +10269,8 @@
       </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -10547,10 +10301,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -10581,10 +10333,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -10615,10 +10365,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -10649,10 +10397,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -10683,10 +10429,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -10713,10 +10457,8 @@
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -10751,10 +10493,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -10789,10 +10529,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -10827,10 +10565,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -10861,10 +10597,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -10895,10 +10629,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H327" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -10925,10 +10657,8 @@
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -10955,10 +10685,8 @@
       </c>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -10985,10 +10713,8 @@
       </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11015,10 +10741,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11045,10 +10769,8 @@
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11075,10 +10797,8 @@
       </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11101,10 +10821,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -11127,10 +10845,8 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11153,10 +10869,8 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -11179,10 +10893,8 @@
       <c r="E337" t="inlineStr"/>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11205,10 +10917,8 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11239,10 +10949,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11277,10 +10985,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11307,10 +11013,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11345,10 +11049,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -11379,10 +11081,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H343" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -11413,10 +11113,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H344" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -11447,10 +11145,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H345" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -11481,10 +11177,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H346" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -11515,10 +11209,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -11549,10 +11241,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -11579,10 +11269,8 @@
       </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -11605,10 +11293,8 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -11631,10 +11317,8 @@
       <c r="E351" t="inlineStr"/>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -11657,10 +11341,8 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -11683,10 +11365,8 @@
       <c r="E353" t="inlineStr"/>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -11709,10 +11389,8 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -11735,10 +11413,8 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -11761,10 +11437,8 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -11787,10 +11461,8 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -11813,10 +11485,8 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -11847,10 +11517,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H359" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -11881,10 +11549,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -11907,10 +11573,8 @@
       <c r="E361" t="inlineStr"/>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -11941,10 +11605,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -11971,10 +11633,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -11997,10 +11657,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12027,10 +11685,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12057,10 +11713,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12087,10 +11741,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12109,10 +11761,8 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12131,10 +11781,8 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H369" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -12161,10 +11809,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12191,10 +11837,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12221,10 +11865,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12269,10 +11911,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -12299,10 +11939,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -12333,10 +11971,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -12367,10 +12003,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -12401,10 +12035,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H378" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -12435,10 +12067,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -12465,10 +12095,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -12495,10 +12123,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -12529,10 +12155,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -12559,10 +12183,8 @@
       </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -12589,10 +12211,8 @@
       </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -12619,10 +12239,8 @@
       </c>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -12649,10 +12267,8 @@
       </c>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -12687,10 +12303,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -12721,10 +12335,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -12759,10 +12371,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -12797,10 +12407,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -12831,10 +12439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H391" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -12865,10 +12471,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H392" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -12899,10 +12503,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -12929,10 +12531,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -12959,10 +12559,8 @@
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -12989,10 +12587,8 @@
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13019,10 +12615,8 @@
       </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -13049,10 +12643,8 @@
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13083,10 +12675,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13113,10 +12703,8 @@
       </c>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13143,10 +12731,8 @@
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13173,10 +12759,8 @@
       </c>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13211,10 +12795,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -13249,10 +12831,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -13287,10 +12867,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -13325,10 +12903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -13351,10 +12927,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -13377,10 +12951,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -13403,10 +12975,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -13433,10 +13003,8 @@
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -13459,10 +13027,8 @@
       <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -13489,10 +13055,8 @@
       </c>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13523,10 +13087,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13557,10 +13119,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -13591,10 +13151,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H415" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -13625,10 +13183,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -13655,10 +13211,8 @@
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13681,10 +13235,8 @@
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H418" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="419">
@@ -13711,10 +13263,8 @@
       </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr"/>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H419" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="420">
@@ -13745,10 +13295,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -13771,10 +13319,8 @@
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr"/>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -13801,10 +13347,8 @@
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr"/>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -13835,10 +13379,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -13861,10 +13403,8 @@
       <c r="E424" t="inlineStr"/>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr"/>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -13891,10 +13431,8 @@
       </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr"/>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -13921,10 +13459,8 @@
       </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -13951,10 +13487,8 @@
       </c>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr"/>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -13981,10 +13515,8 @@
       </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr"/>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14011,10 +13543,8 @@
       </c>
       <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr"/>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14045,10 +13575,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14079,10 +13607,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14109,10 +13635,8 @@
       </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr"/>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H432" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -14139,10 +13663,8 @@
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr"/>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H433" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="434">
@@ -14169,10 +13691,8 @@
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -14195,10 +13715,8 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14221,10 +13739,8 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14247,10 +13763,8 @@
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14273,10 +13787,8 @@
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14299,44 +13811,62 @@
       <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr"/>
-      <c r="C440" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D440" t="inlineStr"/>
-      <c r="E440" t="inlineStr"/>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr"/>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
-      <c r="E441" t="inlineStr"/>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
@@ -14348,83 +13878,99 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr"/>
-      <c r="F443" t="inlineStr"/>
-      <c r="G443" t="inlineStr"/>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr"/>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H444" t="inlineStr">
         <is>
           <t>3</t>
@@ -14434,29 +13980,33 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -14468,29 +14018,29 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -14502,23 +14052,23 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
@@ -14532,65 +14082,49 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E449" t="inlineStr"/>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
           <t>3</t>
@@ -14600,355 +14134,347 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="E450" t="inlineStr"/>
       <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr"/>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr"/>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -14958,23 +14484,31 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr"/>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -14984,31 +14518,23 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15018,25 +14544,21 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
@@ -15046,25 +14568,21 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
@@ -15078,880 +14596,102 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr"/>
-      <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr"/>
-      <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr"/>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
-      <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr"/>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr"/>
-      <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
-      <c r="H490" t="inlineStr"/>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr"/>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr"/>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H468"/>
+  <dimension ref="A1:H470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7932,661 +7932,759 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>BCB Focus Market Readout</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H236" t="n">
-        <v>3</v>
-      </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H237" t="n">
-        <v>3</v>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="n">
-        <v>3</v>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="n">
-        <v>3</v>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="n">
-        <v>3</v>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12-Month Bubill Auction</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="n">
-        <v>3</v>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H243" t="n">
-        <v>3</v>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.734%</t>
+        </is>
+      </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="n">
-        <v>3</v>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="n">
-        <v>3</v>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="n">
-        <v>3</v>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H247" t="n">
-        <v>3</v>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="n">
-        <v>3</v>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>4.110%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="n">
-        <v>3</v>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>-5.83%</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="n">
-        <v>3</v>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="n">
-        <v>3</v>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="n">
-        <v>3</v>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="n">
-        <v>3</v>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>02:30 PM</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="n">
-        <v>3</v>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
+      <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="n">
-        <v>3</v>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>03:10 PM</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>11.7%</t>
-        </is>
-      </c>
+      <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
-      <c r="H256" t="n">
-        <v>3</v>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="n">
-        <v>3</v>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>BCB Focus Market Readout</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="n">
-        <v>3</v>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexDEC</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>101.7</t>
+        </is>
+      </c>
       <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8596,605 +8694,647 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="n">
-        <v>2</v>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>-2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="n">
-        <v>1</v>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
-          <t>92.8</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="n">
-        <v>1</v>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr">
         <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
-      <c r="H263" t="n">
-        <v>2</v>
+          <t>146.4</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="H264" t="n">
-        <v>3</v>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="n">
-        <v>3</v>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
-          <t>-4.0%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="n">
-        <v>3</v>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="n">
-        <v>3</v>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:35 PM</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H268" t="n">
-        <v>3</v>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="H269" t="n">
-        <v>3</v>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>MAS 12-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>3.19%</t>
-        </is>
-      </c>
+      <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="n">
-        <v>3</v>
-      </c>
+      <c r="H270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="n">
-        <v>3</v>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr">
         <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="H272" t="n">
-        <v>3</v>
+          <t>116.0%</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr">
         <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
-      <c r="H273" t="n">
-        <v>3</v>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H274" t="n">
-        <v>3</v>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>-4.022M</t>
         </is>
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="n">
-        <v>3</v>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="n">
-        <v>2</v>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>$ 2.8B</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="n">
-        <v>3</v>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>0.01%</t>
+        </is>
+      </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="n">
-        <v>3</v>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="n">
-        <v>3</v>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="n">
-        <v>3</v>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9204,667 +9344,783 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="n">
-        <v>3</v>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="H282" t="n">
-        <v>3</v>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-      <c r="H284" t="n">
-        <v>2</v>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="H285" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr">
         <is>
-          <t>146.4</t>
-        </is>
-      </c>
-      <c r="H286" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-      <c r="H287" t="n">
-        <v>3</v>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-      <c r="H288" t="n">
-        <v>3</v>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H289" t="n">
-        <v>3</v>
+          <t>-1.3%</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-      <c r="H290" t="n">
-        <v>3</v>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>08:35 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-      <c r="H291" t="n">
-        <v>3</v>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr"/>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-      <c r="H292" t="n">
-        <v>3</v>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Retail Price Index MoMDEC</t>
+        </is>
+      </c>
       <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="H294" t="n">
-        <v>3</v>
+          <t>3.0%</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr">
         <is>
-          <t>116.0%</t>
-        </is>
-      </c>
-      <c r="H295" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H296" t="n">
-        <v>3</v>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="H297" t="n">
-        <v>3</v>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
-          <t>-4.022M</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-      <c r="H298" t="n">
-        <v>2</v>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>$ 2.8B</t>
-        </is>
-      </c>
-      <c r="H299" t="n">
-        <v>2</v>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
-          <t>9.14%</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-      <c r="H300" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-      <c r="H301" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-      <c r="H302" t="n">
-        <v>3</v>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="H303" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -9874,93 +10130,91 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -9970,841 +10224,803 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H307" t="n">
-        <v>2</v>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F308" t="inlineStr"/>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H308" t="n">
-        <v>2</v>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F309" t="inlineStr"/>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H309" t="n">
-        <v>3</v>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F310" t="inlineStr"/>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H310" t="n">
-        <v>3</v>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H311" t="n">
-        <v>3</v>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H312" t="n">
-        <v>3</v>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H313" t="n">
-        <v>3</v>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H314" t="n">
-        <v>3</v>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H315" t="n">
-        <v>3</v>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
-      <c r="H316" t="n">
-        <v>3</v>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H317" t="n">
-        <v>3</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H318" t="n">
-        <v>2</v>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H319" t="n">
-        <v>2</v>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="H320" t="n">
-        <v>3</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H321" t="n">
-        <v>3</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
-      <c r="H322" t="n">
-        <v>3</v>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H323" t="n">
-        <v>3</v>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H324" t="n">
-        <v>3</v>
+          <t>313.8</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H325" t="n">
-        <v>3</v>
+          <t>317.4</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H326" t="n">
-        <v>3</v>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H327" t="n">
-        <v>1</v>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="n">
-        <v>2</v>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="n">
-        <v>3</v>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="n">
-        <v>3</v>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="n">
-        <v>3</v>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="n">
-        <v>3</v>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="n">
-        <v>3</v>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -10814,21 +11030,23 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="n">
-        <v>2</v>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -10838,69 +11056,91 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="n">
-        <v>3</v>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D336" t="inlineStr"/>
-      <c r="E336" t="inlineStr"/>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F336" t="inlineStr"/>
-      <c r="G336" t="inlineStr"/>
-      <c r="H336" t="n">
-        <v>3</v>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F337" t="inlineStr"/>
-      <c r="G337" t="inlineStr"/>
-      <c r="H337" t="n">
-        <v>3</v>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -10910,53 +11150,57 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="n">
-        <v>3</v>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr">
         <is>
-          <t>$628.0B</t>
-        </is>
-      </c>
-      <c r="H339" t="n">
-        <v>3</v>
+          <t>49.8</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -10966,1019 +11210,1139 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H340" t="n">
-        <v>3</v>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="n">
-        <v>3</v>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="H342" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
+          <t>1.0%</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D345" t="inlineStr"/>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D346" t="inlineStr"/>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>313.8</t>
-        </is>
-      </c>
-      <c r="H347" t="n">
-        <v>2</v>
+          <t>$ -23B</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="H348" t="n">
-        <v>2</v>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
+      <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
-      <c r="G349" t="inlineStr"/>
-      <c r="H349" t="n">
-        <v>2</v>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>$ 59B</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr"/>
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="n">
-        <v>2</v>
-      </c>
+      <c r="H350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D351" t="inlineStr"/>
-      <c r="E351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F351" t="inlineStr"/>
-      <c r="G351" t="inlineStr"/>
-      <c r="H351" t="n">
-        <v>2</v>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>3.30%</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="n">
-        <v>3</v>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D353" t="inlineStr"/>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr"/>
-      <c r="G353" t="inlineStr"/>
-      <c r="H353" t="n">
-        <v>3</v>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>05:31 AM</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
+          <t>RICS House Price BalanceDEC</t>
         </is>
       </c>
       <c r="D354" t="inlineStr"/>
-      <c r="E354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr"/>
-      <c r="G354" t="inlineStr"/>
-      <c r="H354" t="n">
-        <v>3</v>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>17.0%</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D355" t="inlineStr"/>
-      <c r="E355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr"/>
-      <c r="G355" t="inlineStr"/>
-      <c r="H355" t="n">
-        <v>3</v>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>4.30%</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
+          <t>Employment ChangeDEC</t>
         </is>
       </c>
       <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>35.6K</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
-      <c r="H356" t="n">
-        <v>3</v>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>25.1K</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>52.6K</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="n">
-        <v>3</v>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
-      <c r="E358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>-17.0K</t>
+        </is>
+      </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="n">
-        <v>3</v>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H359" t="n">
-        <v>2</v>
+          <t>66.8%</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Interest Rate Decision</t>
         </is>
       </c>
       <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F360" t="inlineStr"/>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H360" t="n">
-        <v>2</v>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>20-Year JGB Auction</t>
         </is>
       </c>
       <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>1.879%</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="n">
-        <v>3</v>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>0.4796%</t>
         </is>
       </c>
       <c r="F362" t="inlineStr"/>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H362" t="n">
-        <v>2</v>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>5-Year Bond Auction</t>
+          <t>6-Month T-Bill Auction</t>
         </is>
       </c>
       <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
-          <t>3.146%</t>
+          <t>3.02%</t>
         </is>
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="n">
-        <v>3</v>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr"/>
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr"/>
-      <c r="G364" t="inlineStr"/>
-      <c r="H364" t="n">
-        <v>3</v>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D365" t="inlineStr"/>
       <c r="E365" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H365" t="n">
-        <v>3</v>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D366" t="inlineStr"/>
       <c r="E366" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H366" t="n">
-        <v>3</v>
+          <t>2.9%</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr">
         <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr"/>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>1.0%</t>
-        </is>
-      </c>
-      <c r="H367" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="n">
-        <v>3</v>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>GDP YoYNOV</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
-      <c r="H369" t="n">
-        <v>3</v>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr"/>
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>GDP 3-Month AvgNOV</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
-          <t>$-37.84B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr">
         <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H370" t="n">
-        <v>3</v>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr"/>
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Goods Trade BalanceNOV</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>£-18.97B</t>
         </is>
       </c>
       <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H371" t="n">
-        <v>3</v>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr"/>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Goods Trade Balance Non-EUNOV</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>£-7.28B</t>
         </is>
       </c>
       <c r="F372" t="inlineStr"/>
-      <c r="G372" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H372" t="n">
-        <v>3</v>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr"/>
-      <c r="C373" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Industrial Production MoMNOV</t>
+        </is>
+      </c>
       <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr"/>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F374" t="inlineStr"/>
-      <c r="G374" t="inlineStr">
-        <is>
-          <t>3.30%</t>
-        </is>
-      </c>
-      <c r="H374" t="n">
-        <v>2</v>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>£-3.72B</t>
         </is>
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="n">
-        <v>3</v>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Construction Output YoYNOV</t>
         </is>
       </c>
       <c r="D376" t="inlineStr"/>
       <c r="E376" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="H376" t="n">
-        <v>3</v>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>05:31 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -11988,1145 +12352,1161 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>RICS House Price BalanceDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D377" t="inlineStr"/>
       <c r="E377" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="F377" t="inlineStr"/>
-      <c r="G377" t="inlineStr">
-        <is>
-          <t>17.0%</t>
-        </is>
-      </c>
-      <c r="H377" t="n">
-        <v>2</v>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Manufacturing Production YoYNOV</t>
         </is>
       </c>
       <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F378" t="inlineStr"/>
-      <c r="G378" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D379" t="inlineStr"/>
       <c r="E379" t="inlineStr">
         <is>
-          <t>35.6K</t>
+          <t>€5.153B</t>
         </is>
       </c>
       <c r="F379" t="inlineStr"/>
-      <c r="G379" t="inlineStr">
-        <is>
-          <t>25.1K</t>
-        </is>
-      </c>
-      <c r="H379" t="n">
-        <v>2</v>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr">
         <is>
-          <t>52.6K</t>
-        </is>
-      </c>
-      <c r="F380" t="inlineStr"/>
-      <c r="G380" t="inlineStr"/>
-      <c r="H380" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr">
         <is>
-          <t>-17.0K</t>
-        </is>
-      </c>
-      <c r="F381" t="inlineStr"/>
-      <c r="G381" t="inlineStr"/>
-      <c r="H381" t="n">
-        <v>3</v>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
       <c r="E382" t="inlineStr">
         <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F382" t="inlineStr"/>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>66.8%</t>
-        </is>
-      </c>
-      <c r="H382" t="n">
-        <v>3</v>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Interest Rate Decision</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr"/>
-      <c r="G383" t="inlineStr"/>
-      <c r="H383" t="n">
-        <v>2</v>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>20-Year JGB Auction</t>
+          <t>Bonos Auction</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>1.879%</t>
-        </is>
-      </c>
+      <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="n">
-        <v>3</v>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Index-Linked Obligacion Auction</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>0.4796%</t>
-        </is>
-      </c>
+      <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="n">
-        <v>3</v>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:10 PM</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>6-Month T-Bill Auction</t>
+          <t>Obligacion Auction</t>
         </is>
       </c>
       <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>3.02%</t>
-        </is>
-      </c>
+      <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="n">
-        <v>3</v>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D387" t="inlineStr"/>
       <c r="E387" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H387" t="n">
-        <v>2</v>
+          <t>€6.8B</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H388" t="n">
-        <v>2</v>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>IBC-BR Economic ActivityNOV</t>
         </is>
       </c>
       <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G389" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="H389" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H390" t="n">
-        <v>3</v>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>06:45 PM</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>262.4K</t>
         </is>
       </c>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H391" t="n">
-        <v>1</v>
+          <t>220K</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>GDP YoYNOV</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H392" t="n">
-        <v>1</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>GDP 3-Month AvgNOV</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
       <c r="E393" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H393" t="n">
-        <v>2</v>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Goods Trade BalanceNOV</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D394" t="inlineStr"/>
       <c r="E394" t="inlineStr">
         <is>
-          <t>£-18.97B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="n">
-        <v>2</v>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Goods Trade Balance Non-EUNOV</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>£-7.28B</t>
-        </is>
-      </c>
+      <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="n">
-        <v>2</v>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D396" t="inlineStr"/>
       <c r="E396" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="n">
-        <v>2</v>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="n">
-        <v>2</v>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>£-3.72B</t>
-        </is>
-      </c>
+      <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="n">
-        <v>3</v>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Construction Output YoYNOV</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H399" t="n">
-        <v>3</v>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr"/>
-      <c r="H400" t="n">
-        <v>3</v>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="n">
-        <v>3</v>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr">
         <is>
-          <t>€5.153B</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="n">
-        <v>2</v>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G403" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H403" t="n">
-        <v>2</v>
+          <t>18.8</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="H404" t="n">
-        <v>2</v>
+          <t>6.6</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="G405" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H405" t="n">
-        <v>3</v>
+          <t>-4.3</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Philly Fed Prices PaidJAN</t>
         </is>
       </c>
       <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G406" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H406" t="n">
-        <v>3</v>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Bonos Auction</t>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
         </is>
       </c>
       <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="n">
-        <v>3</v>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Index-Linked Obligacion Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr"/>
-      <c r="H408" t="n">
-        <v>3</v>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>03:10 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Obligacion Auction</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="n">
-        <v>3</v>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr">
         <is>
-          <t>€6.8B</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="n">
-        <v>2</v>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="n">
-        <v>3</v>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>IBC-BR Economic ActivityNOV</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="n">
-        <v>3</v>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
-      <c r="G413" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H413" t="n">
-        <v>3</v>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>262.4K</t>
-        </is>
-      </c>
+      <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="H414" t="n">
-        <v>2</v>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -13136,29 +13516,23 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
-      <c r="G415" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -13168,57 +13542,37 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Export Prices MoMDEC</t>
+          <t>30-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
-      <c r="G416" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H416" t="n">
-        <v>2</v>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>Import Prices MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E417" t="inlineStr"/>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="n">
-        <v>2</v>
-      </c>
+      <c r="H417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -13228,613 +13582,709 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
-      <c r="H418" t="n">
-        <v>2</v>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
+          <t>Reuters Tankan IndexJAN</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr"/>
-      <c r="H419" t="n">
-        <v>2</v>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
+          <t>Foreign Bond InvestmentJAN/11</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E420" t="inlineStr"/>
       <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H420" t="n">
-        <v>2</v>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:20 AM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
+          <t>Stock Investment by ForeignersJAN/11</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr"/>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr"/>
-      <c r="H421" t="n">
-        <v>3</v>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Non-Oil Exports MoMDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>14.7%</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
-      <c r="G422" t="inlineStr"/>
-      <c r="H422" t="n">
-        <v>3</v>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Non-Oil Exports YoYDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H423" t="n">
-        <v>3</v>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr"/>
-      <c r="H424" t="n">
-        <v>3</v>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Philly Fed Business ConditionsJAN</t>
+          <t>House Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>-5.7%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
-      <c r="H425" t="n">
-        <v>3</v>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-5.8%</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>$6.52B</t>
         </is>
       </c>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
-      <c r="H426" t="n">
-        <v>3</v>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>$ 3.6B</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Philly Fed EmploymentJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr"/>
-      <c r="H427" t="n">
-        <v>3</v>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Philly Fed New OrdersJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-4.3</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr"/>
-      <c r="H428" t="n">
-        <v>3</v>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Philly Fed Prices PaidJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr"/>
-      <c r="H429" t="n">
-        <v>3</v>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+          <t>Fixed Asset Investment (YTD) YoYDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H430" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>3.8%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H431" t="n">
-        <v>3</v>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Business Inventories MoMNOV</t>
+          <t>Industrial Capacity UtilizationQ4</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
-      <c r="H432" t="n">
-        <v>2</v>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>74.9%</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
-      <c r="H433" t="n">
-        <v>2</v>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:05 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
-      <c r="H434" t="n">
-        <v>3</v>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr"/>
-      <c r="G435" t="inlineStr"/>
-      <c r="H435" t="n">
-        <v>3</v>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr"/>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr"/>
-      <c r="H436" t="n">
-        <v>3</v>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Retail Sales ex Fuel MoMDEC</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr"/>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="n">
-        <v>3</v>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/16</t>
+          <t>Retail Sales ex Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr"/>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="n">
-        <v>3</v>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>12:50 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/16</t>
+          <t>Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr"/>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>10.79%</t>
+        </is>
+      </c>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr"/>
-      <c r="H439" t="n">
-        <v>3</v>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Deposit Facility RateJAN</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>€32B</t>
+          <t>5.25%</t>
         </is>
       </c>
       <c r="F440" t="inlineStr"/>
@@ -13848,23 +14298,23 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Lending Facility RateJAN</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -13883,32 +14333,32 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>€32B</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -13918,62 +14368,50 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>€33.5B</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -13990,28 +14428,28 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14028,19 +14466,19 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>CPI FinalDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>126.62</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -14057,22 +14495,30 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H447" t="inlineStr">
         <is>
           <t>3</t>
@@ -14082,23 +14528,31 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr"/>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>126.62</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
       <c r="H448" t="inlineStr">
         <is>
           <t>3</t>
@@ -14108,21 +14562,25 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/03</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>€5628M</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
@@ -14144,7 +14602,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
@@ -14160,25 +14618,21 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Foreign Securities PurchasesNOV</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
+      <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
@@ -14190,25 +14644,21 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
+      <c r="E452" t="inlineStr"/>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
@@ -14225,29 +14675,25 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14259,29 +14705,25 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14298,20 +14740,24 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -14328,31 +14774,31 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -14362,13 +14808,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
@@ -14382,7 +14828,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -14392,24 +14838,24 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14426,24 +14872,20 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -14460,19 +14902,19 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -14494,19 +14936,19 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -14518,7 +14960,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -14528,13 +14970,21 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -14544,47 +14994,55 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
+          <t>07:45 PM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYDEC</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
           <t>11:30 PM</t>
         </is>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B464" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
-      <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr"/>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>50-Year KTB Auction</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
+      <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
@@ -14596,76 +15054,68 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr"/>
-      <c r="C465" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr"/>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
+      <c r="A466" t="inlineStr"/>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -14680,18 +15130,78 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Foreign Bond InvestmentNOV</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>02:30 AM</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Overall Net Capital FlowsNOV</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
+      <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7947,10 +7947,8 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -7991,10 +7989,8 @@
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -8021,10 +8017,8 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8051,10 +8045,8 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8085,10 +8077,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8119,10 +8109,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8149,10 +8137,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8179,10 +8165,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8209,10 +8193,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8243,10 +8225,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8277,10 +8257,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8307,10 +8285,8 @@
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8337,10 +8313,8 @@
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8371,10 +8345,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8405,10 +8377,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -8439,10 +8409,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -8469,10 +8437,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -8499,10 +8465,8 @@
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -8529,10 +8493,8 @@
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8555,10 +8517,8 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8581,10 +8541,8 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -8611,10 +8569,8 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -8641,10 +8597,8 @@
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -8675,10 +8629,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -8709,10 +8661,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -8739,10 +8689,8 @@
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -8773,10 +8721,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -8807,10 +8753,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -8837,10 +8781,8 @@
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -8867,10 +8809,8 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -8901,10 +8841,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -8931,10 +8869,8 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -8961,10 +8897,8 @@
       </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -8987,10 +8921,8 @@
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9035,10 +8967,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9069,10 +8999,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9103,10 +9031,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9137,10 +9063,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9167,10 +9091,8 @@
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9201,10 +9123,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9231,10 +9151,8 @@
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9261,10 +9179,8 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9291,10 +9207,8 @@
       </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -9325,10 +9239,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -9359,10 +9271,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -9393,10 +9303,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -9427,10 +9335,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -9461,10 +9367,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -9495,10 +9399,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -9529,10 +9431,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -9563,10 +9463,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -9597,10 +9495,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -9631,10 +9527,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -9665,10 +9559,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -9699,10 +9591,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -9733,10 +9623,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -9763,10 +9651,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -9797,10 +9683,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -9831,10 +9715,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -9865,10 +9747,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -9899,10 +9779,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -9933,10 +9811,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -9963,10 +9839,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10001,10 +9875,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10039,10 +9911,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10077,10 +9947,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10111,10 +9979,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10145,10 +10011,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -10175,10 +10039,8 @@
       </c>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10205,10 +10067,8 @@
       </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10235,10 +10095,8 @@
       </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10265,10 +10123,8 @@
       </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -10295,10 +10151,8 @@
       </c>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -10325,10 +10179,8 @@
       </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -10351,10 +10203,8 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -10377,10 +10227,8 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -10403,10 +10251,8 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -10429,10 +10275,8 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -10455,10 +10299,8 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -10489,10 +10331,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -10527,10 +10367,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -10557,10 +10395,8 @@
       </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -10595,10 +10431,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -10629,10 +10463,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H320" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -10663,10 +10495,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H321" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -10697,10 +10527,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H322" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -10731,10 +10559,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -10765,10 +10591,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -10799,10 +10623,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -10829,10 +10651,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -10855,10 +10675,8 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -10881,10 +10699,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -10907,10 +10723,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -10933,10 +10747,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -10959,10 +10771,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -10985,10 +10795,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11011,10 +10819,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11037,10 +10843,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11063,10 +10867,8 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11097,10 +10899,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11131,10 +10931,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11157,10 +10955,8 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11191,10 +10987,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11221,10 +11015,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11247,10 +11039,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11277,10 +11067,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -11307,10 +11095,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -11337,10 +11123,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -11359,10 +11143,8 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -11381,10 +11163,8 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -11411,10 +11191,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -11441,10 +11219,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -11471,10 +11247,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -11519,10 +11293,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -11549,10 +11321,8 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -11583,10 +11353,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -11617,10 +11385,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -11651,10 +11417,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H355" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -11685,10 +11449,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -11715,10 +11477,8 @@
       </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H357" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -11745,10 +11505,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -11779,10 +11537,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -11809,10 +11565,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -11839,10 +11593,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -11869,10 +11621,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -11899,10 +11649,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -11937,10 +11685,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -11971,10 +11717,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -12009,10 +11753,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12047,10 +11789,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12081,10 +11821,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -12115,10 +11853,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H369" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -12149,10 +11885,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -12179,10 +11913,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12209,10 +11941,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12239,10 +11969,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H373" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -12269,10 +11997,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -12299,10 +12025,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -12333,10 +12057,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -12363,10 +12085,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -12393,10 +12113,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -12423,10 +12141,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -12461,10 +12177,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -12499,10 +12213,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -12537,10 +12249,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -12575,10 +12285,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -12601,10 +12309,8 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -12627,10 +12333,8 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -12653,10 +12357,8 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -12683,10 +12385,8 @@
       </c>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -12709,10 +12409,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -12739,10 +12437,8 @@
       </c>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -12773,10 +12469,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -12807,10 +12501,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -12841,10 +12533,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H392" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -12875,10 +12565,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -12905,10 +12593,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -12931,10 +12617,8 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -12961,10 +12645,8 @@
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -12995,10 +12677,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -13021,10 +12701,8 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13051,10 +12729,8 @@
       </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13085,10 +12761,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13111,10 +12785,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13141,10 +12813,8 @@
       </c>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13171,10 +12841,8 @@
       </c>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13201,10 +12869,8 @@
       </c>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13231,10 +12897,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -13261,10 +12925,8 @@
       </c>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -13295,10 +12957,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -13329,10 +12989,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -13359,10 +13017,8 @@
       </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -13389,10 +13045,8 @@
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -13419,10 +13073,8 @@
       </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -13445,10 +13097,8 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13471,10 +13121,8 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13497,10 +13145,8 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13523,10 +13169,8 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13549,44 +13193,62 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr"/>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr"/>
-      <c r="C417" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr"/>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
@@ -13598,83 +13260,99 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G419" t="inlineStr"/>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H421" t="inlineStr">
         <is>
           <t>3</t>
@@ -13684,29 +13362,33 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -13718,29 +13400,29 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -13752,23 +13434,23 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
@@ -13782,65 +13464,49 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr">
         <is>
           <t>3</t>
@@ -13850,355 +13516,347 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr"/>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
-      <c r="E437" t="inlineStr"/>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H437" t="inlineStr">
         <is>
           <t>3</t>
@@ -14208,23 +13866,31 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
-      <c r="E438" t="inlineStr"/>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H438" t="inlineStr">
         <is>
           <t>3</t>
@@ -14234,31 +13900,23 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
           <t>3</t>
@@ -14268,25 +13926,21 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
@@ -14296,25 +13950,21 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -14328,880 +13978,102 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr"/>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr"/>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
-      <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr"/>
-      <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
-      <c r="F452" t="inlineStr"/>
-      <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
-      <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr"/>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
-      <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2025-01-07_to_2025-01-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7745,10 +7745,8 @@
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -7775,10 +7773,8 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -7801,10 +7797,8 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -7827,10 +7821,8 @@
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -7853,10 +7845,8 @@
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -7883,10 +7873,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -7909,10 +7897,8 @@
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -7931,10 +7917,8 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -7975,10 +7959,8 @@
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -8005,10 +7987,8 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -8035,10 +8015,8 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8069,10 +8047,8 @@
           <t>¥1990.0B</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="241">
@@ -8103,10 +8079,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -8133,10 +8107,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8163,10 +8135,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8193,10 +8163,8 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8227,10 +8195,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8261,10 +8227,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8291,10 +8255,8 @@
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8321,10 +8283,8 @@
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8355,10 +8315,8 @@
           <t>10.2%</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8389,10 +8347,8 @@
           <t>-3.2%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -8423,10 +8379,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -8453,10 +8407,8 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -8483,10 +8435,8 @@
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -8513,10 +8463,8 @@
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -8539,10 +8487,8 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -8565,10 +8511,8 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257">
@@ -8595,10 +8539,8 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -8625,10 +8567,8 @@
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="259">
@@ -8659,10 +8599,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -8693,10 +8631,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -8723,10 +8659,8 @@
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -8757,10 +8691,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -8791,10 +8723,8 @@
           <t>146.4</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -8821,10 +8751,8 @@
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -8851,10 +8779,8 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -8885,10 +8811,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -8915,10 +8839,8 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -8945,10 +8867,8 @@
       </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -8971,10 +8891,8 @@
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9019,10 +8937,8 @@
           <t>2.0%</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9053,10 +8969,8 @@
           <t>116.0%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9087,10 +9001,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9121,10 +9033,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H274" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="275">
@@ -9151,10 +9061,8 @@
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9185,10 +9093,8 @@
           <t>$ 2.8B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -9215,10 +9121,8 @@
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9245,10 +9149,8 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9275,10 +9177,8 @@
       </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="280">
@@ -9309,10 +9209,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -9343,10 +9241,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -9377,10 +9273,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -9411,10 +9305,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -9445,10 +9337,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -9479,10 +9369,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -9513,10 +9401,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -9547,10 +9433,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -9581,10 +9465,8 @@
           <t>2.1%</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -9615,10 +9497,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -9649,10 +9529,8 @@
           <t>-1%</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -9683,10 +9561,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -9717,10 +9593,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -9747,10 +9621,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -9781,10 +9653,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -9815,10 +9685,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -9849,10 +9717,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -9883,10 +9749,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -9917,10 +9781,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -9947,10 +9809,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -9985,10 +9845,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10023,10 +9881,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10061,10 +9917,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H302" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -10095,10 +9949,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H303" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -10129,10 +9981,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H304" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -10159,10 +10009,8 @@
       </c>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10189,10 +10037,8 @@
       </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10219,10 +10065,8 @@
       </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H307" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -10249,10 +10093,8 @@
       </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H308" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -10279,10 +10121,8 @@
       </c>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -10309,10 +10149,8 @@
       </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -10335,10 +10173,8 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -10361,10 +10197,8 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -10387,10 +10221,8 @@
       <c r="E313" t="inlineStr"/>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -10413,10 +10245,8 @@
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -10439,10 +10269,8 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -10473,10 +10301,8 @@
           <t>$628.0B</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -10511,10 +10337,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -10541,10 +10365,8 @@
       </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -10579,10 +10401,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -10613,10 +10433,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H320" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -10647,10 +10465,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H321" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -10681,10 +10497,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H322" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -10715,10 +10529,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -10749,10 +10561,8 @@
           <t>313.8</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -10783,10 +10593,8 @@
           <t>317.4</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -10813,10 +10621,8 @@
       </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -10839,10 +10645,8 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -10865,10 +10669,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -10891,10 +10693,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -10917,10 +10717,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -10943,10 +10741,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -10969,10 +10765,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -10995,10 +10789,8 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11021,10 +10813,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11047,10 +10837,8 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11081,10 +10869,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11115,10 +10901,8 @@
           <t>9.5%</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11141,10 +10925,8 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11175,10 +10957,8 @@
           <t>49.8</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -11205,10 +10985,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11231,10 +11009,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11261,10 +11037,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -11291,10 +11065,8 @@
           <t>2%</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -11321,10 +11093,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -11343,10 +11113,8 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -11365,10 +11133,8 @@
       <c r="E346" t="inlineStr"/>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -11395,10 +11161,8 @@
           <t>$ -23B</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -11425,10 +11189,8 @@
           <t>$ 36B</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -11455,10 +11217,8 @@
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -11503,10 +11263,8 @@
           <t>3.30%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -11533,10 +11291,8 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -11567,10 +11323,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -11601,10 +11355,8 @@
           <t>17.0%</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -11635,10 +11387,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H355" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -11669,10 +11419,8 @@
           <t>25.1K</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -11699,10 +11447,8 @@
       </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H357" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -11729,10 +11475,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -11763,10 +11507,8 @@
           <t>66.8%</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -11793,10 +11535,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -11823,10 +11563,8 @@
       </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -11853,10 +11591,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -11883,10 +11619,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -11921,10 +11655,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -11955,10 +11687,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -11993,10 +11723,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12031,10 +11759,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12065,10 +11791,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H368" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -12099,10 +11823,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H369" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -12133,10 +11855,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -12163,10 +11883,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -12193,10 +11911,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -12223,10 +11939,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H373" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -12253,10 +11967,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -12283,10 +11995,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -12317,10 +12027,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -12347,10 +12055,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -12377,10 +12083,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -12407,10 +12111,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -12445,10 +12147,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -12483,10 +12183,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -12521,10 +12219,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -12559,10 +12255,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -12585,10 +12279,8 @@
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -12611,10 +12303,8 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -12637,10 +12327,8 @@
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -12667,10 +12355,8 @@
       </c>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -12693,10 +12379,8 @@
       <c r="E388" t="inlineStr"/>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -12723,10 +12407,8 @@
       </c>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -12757,10 +12439,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -12791,10 +12471,8 @@
           <t>220K</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -12825,10 +12503,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H392" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -12859,10 +12535,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -12889,10 +12563,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -12915,10 +12587,8 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -12945,10 +12615,8 @@
       </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -12979,10 +12647,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -13005,10 +12671,8 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13035,10 +12699,8 @@
       </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13069,10 +12731,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13095,10 +12755,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13125,10 +12783,8 @@
       </c>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13155,10 +12811,8 @@
       </c>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13185,10 +12839,8 @@
       </c>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -13215,10 +12867,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -13245,10 +12895,8 @@
       </c>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -13279,10 +12927,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -13313,10 +12959,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -13343,10 +12987,8 @@
       </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -13373,10 +13015,8 @@
       </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -13403,10 +13043,8 @@
       </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -13429,10 +13067,8 @@
       <c r="E412" t="inlineStr"/>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H412" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="413">
@@ -13455,10 +13091,8 @@
       <c r="E413" t="inlineStr"/>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H413" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="414">
@@ -13481,10 +13115,8 @@
       <c r="E414" t="inlineStr"/>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -13507,10 +13139,8 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -13533,44 +13163,62 @@
       <c r="E416" t="inlineStr"/>
       <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr"/>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr"/>
-      <c r="C417" t="inlineStr"/>
+          <t>02:30 PM</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>€32B</t>
+        </is>
+      </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr"/>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
+          <t>Current Account s.aNOV</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>€33.5B</t>
+        </is>
+      </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
@@ -13582,83 +13230,99 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Reuters Tankan IndexJAN</t>
+          <t>Balance of TradeNOV</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>€-3.93B</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
-      <c r="G419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G419" t="inlineStr"/>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentJAN/11</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
-      <c r="F420" t="inlineStr"/>
-      <c r="G420" t="inlineStr"/>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Stock Investment by ForeignersJAN/11</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="F421" t="inlineStr"/>
-      <c r="G421" t="inlineStr"/>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="H421" t="inlineStr">
         <is>
           <t>3</t>
@@ -13668,29 +13332,33 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Non-Oil Exports MoMDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>14.7%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr"/>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -13702,29 +13370,29 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Non-Oil Exports YoYDEC</t>
+          <t>CPI FinalDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>126.62</t>
         </is>
       </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>127</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -13736,23 +13404,23 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>€5628M</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
@@ -13766,65 +13434,49 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>-5.7%</t>
-        </is>
-      </c>
+      <c r="E425" t="inlineStr"/>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr">
-        <is>
-          <t>-5.8%</t>
-        </is>
-      </c>
+      <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Deposit Growth YoYJAN/03</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>$6.52B</t>
-        </is>
-      </c>
+      <c r="E426" t="inlineStr"/>
       <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr">
-        <is>
-          <t>$ 3.6B</t>
-        </is>
-      </c>
+      <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr">
         <is>
           <t>3</t>
@@ -13834,355 +13486,347 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>Foreign Exchange ReservesJAN/10</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+      <c r="E427" t="inlineStr"/>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Foreign Securities PurchasesNOV</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>C$21.55B</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
-      <c r="G428" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Foreign Securities Purchases by CanadiansNOV</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>C$-2.65B</t>
         </is>
       </c>
       <c r="F429" t="inlineStr"/>
-      <c r="G429" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Fixed Asset Investment (YTD) YoYDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1.493M</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>1.6M</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>1.5M</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Industrial Capacity UtilizationQ4</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr">
-        <is>
-          <t>74.9%</t>
-        </is>
-      </c>
+      <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr"/>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>77.8%</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel MoMDEC</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
-      <c r="E437" t="inlineStr"/>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr"/>
-      <c r="G437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H437" t="inlineStr">
         <is>
           <t>3</t>
@@ -14192,23 +13836,31 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Retail Sales ex Fuel YoYDEC</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
-      <c r="E438" t="inlineStr"/>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="F438" t="inlineStr"/>
-      <c r="G438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>-0.9%</t>
+        </is>
+      </c>
       <c r="H438" t="inlineStr">
         <is>
           <t>3</t>
@@ -14218,31 +13870,23 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>12:50 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Loan Growth YoYDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>10.79%</t>
-        </is>
-      </c>
+      <c r="E439" t="inlineStr"/>
       <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>10%</t>
-        </is>
-      </c>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
           <t>3</t>
@@ -14252,25 +13896,21 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Deposit Facility RateJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>5.25%</t>
-        </is>
-      </c>
+      <c r="E440" t="inlineStr"/>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
@@ -14280,25 +13920,21 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Lending Facility RateJAN</t>
+          <t>50-Year KTB Auction</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="F441" t="inlineStr"/>
@@ -14312,880 +13948,102 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
+          <t>Saturday January 18 2025</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>€32B</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Current Account s.aNOV</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>€33.5B</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Balance of TradeNOV</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>€-3.93B</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>02:30 AM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+          <t>$203.6B</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr"/>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr"/>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>CPI FinalDEC</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>126.62</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Current AccountNOV</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>€5628M</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>Bank Loan Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
-      <c r="F450" t="inlineStr"/>
-      <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Deposit Growth YoYJAN/03</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr"/>
-      <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN/10</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
-      <c r="F452" t="inlineStr"/>
-      <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>Foreign Securities PurchasesNOV</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>C$21.55B</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>Foreign Securities Purchases by CanadiansNOV</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>C$-2.65B</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>1.5M</t>
-        </is>
-      </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
-      <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr"/>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>50-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr"/>
-      <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
-      <c r="H467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr"/>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr"/>
-      <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
         </is>
